--- a/venturesData.xlsx
+++ b/venturesData.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,1332 +385,2275 @@
         <v>ventureName</v>
       </c>
       <c r="B1" t="str">
+        <v>rating</v>
+      </c>
+      <c r="C1" t="str">
+        <v>categories</v>
+      </c>
+      <c r="D1" t="str">
         <v>numberOfOrders</v>
+      </c>
+      <c r="E1" t="str">
+        <v>link</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mithaas</v>
-      </c>
-      <c r="B2">
-        <v>3850</v>
+        <v>Noor Biriyani</v>
+      </c>
+      <c r="B2" t="str">
+        <v>-</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>https://www.zomato.com/chennai/noor-biriyani-gst-road/order</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Biggies Pizza</v>
-      </c>
-      <c r="B3">
-        <v>6550</v>
+        <v>SMK Food Products</v>
+      </c>
+      <c r="B3" t="str">
+        <v>-</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>https://www.zomato.com/chennai/smk-food-products-madipakkam/order</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Pappi Vaishno Dhabha</v>
-      </c>
-      <c r="B4">
-        <v>8200</v>
+        <v>Hotel Beach House</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>https://www.zomato.com/chennai/hotel-beach-house-1-potheri/order</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Pizza Hut</v>
-      </c>
-      <c r="B5">
-        <v>3575</v>
+        <v>Hotel TN 59</v>
+      </c>
+      <c r="B5" t="str">
+        <v>-</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://www.zomato.com/chennai/hotel-tn-59-potheri/order</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Ram Lal Chole Bhature</v>
-      </c>
-      <c r="B6">
-        <v>2950</v>
+        <v>Kishan Variety Dosai</v>
+      </c>
+      <c r="B6" t="str">
+        <v>-</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>https://www.zomato.com/chennai/kishan-variety-dosai-potheri/order</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>My Grill Restaurant</v>
-      </c>
-      <c r="B7">
-        <v>4150</v>
+        <v>Sri Madura Chettinad Hotel</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>https://www.zomato.com/chennai/sri-madura-chettinad-hotel-gst-road/order</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Kumar Cholay Bhature</v>
-      </c>
-      <c r="B8">
-        <v>2250</v>
+        <v>Frankista</v>
+      </c>
+      <c r="B8" t="str">
+        <v>-</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://www.zomato.com/chennai/frankista-potheri/order</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mittal Dhaba</v>
-      </c>
-      <c r="B9">
-        <v>5550</v>
+        <v>Mr Chai</v>
+      </c>
+      <c r="B9" t="str">
+        <v>-</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>https://www.zomato.com/chennai/mr-chai-potheri/order</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Pizza Friends Restaurant</v>
-      </c>
-      <c r="B10">
-        <v>1800</v>
+        <v>Healthy Food Point</v>
+      </c>
+      <c r="B10" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>https://www.zomato.com/chennai/healthy-food-point-kanathur/order</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Al-Shayaan Restaurant</v>
-      </c>
-      <c r="B11">
-        <v>4075</v>
+        <v>Malabar Camboose</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://www.zomato.com/chennai/malabar-camboose-1-gst-road/order</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Pinki Chole Bhandar</v>
-      </c>
-      <c r="B12">
-        <v>9275</v>
+        <v>Juice Kingdom</v>
+      </c>
+      <c r="B12" t="str">
+        <v>-</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://www.zomato.com/chennai/juice-kingdom-1-potheri/order</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Pizza Butter Bite</v>
-      </c>
-      <c r="B13">
-        <v>2725</v>
+        <v>Juice Stop</v>
+      </c>
+      <c r="B13" t="str">
+        <v>-</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://www.zomato.com/chennai/juice-stop-potheri/order</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Grill Inn Broccoli Restaurant</v>
-      </c>
-      <c r="B14">
-        <v>1550</v>
+        <v>Brundavan Food Court</v>
+      </c>
+      <c r="B14" t="str">
+        <v>-</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://www.zomato.com/chennai/brundavan-food-court-potheri/order</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>McDonald's</v>
-      </c>
-      <c r="B15">
-        <v>17075</v>
+        <v>Crunchy Bites</v>
+      </c>
+      <c r="B15" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://www.zomato.com/chennai/crunchy-bites-1-potheri/order</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Papa Ji Dal Wale ( Since 1948 )</v>
-      </c>
-      <c r="B16">
-        <v>8250</v>
+        <v>Roll Over</v>
+      </c>
+      <c r="B16" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://www.zomato.com/chennai/roll-over-potheri/order</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ram Lal Ji Ke Mashoor Chole Bhature</v>
-      </c>
-      <c r="B17">
-        <v>1625</v>
+        <v>Mr. Foodie</v>
+      </c>
+      <c r="B17" t="str">
+        <v>-</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://www.zomato.com/chennai/mr-foodie-1-potheri/order</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Hira Sweets</v>
-      </c>
-      <c r="B18">
-        <v>21825</v>
+        <v>BBQ Mafia</v>
+      </c>
+      <c r="B18" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://www.zomato.com/chennai/bbq-mafia-potheri/order</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rom's Pizza</v>
-      </c>
-      <c r="B19">
-        <v>725</v>
+        <v>Gama Gama Gravy</v>
+      </c>
+      <c r="B19" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://www.zomato.com/chennai/gama-gama-gravy-potheri/order</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Biggies Pizza</v>
-      </c>
-      <c r="B20">
-        <v>4925</v>
+        <v>Tirunelveli Traditional Sweets And Karam</v>
+      </c>
+      <c r="B20" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://www.zomato.com/chennai/tirunelveli-traditional-sweets-and-karam-potheri/order</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Vaidehi Rasoi</v>
-      </c>
-      <c r="B21">
-        <v>1825</v>
+        <v>Wrap &amp; Roll-Unravel Your Roll Secrets</v>
+      </c>
+      <c r="B21" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://www.zomato.com/chennai/wrap-roll-unravel-your-roll-secrets-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Hariya Ji Milk Palace</v>
-      </c>
-      <c r="B22">
-        <v>4150</v>
+        <v>Foodie Sandwich</v>
+      </c>
+      <c r="B22" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://www.zomato.com/chennai/foodie-sandwich-1-potheri/order</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Son Of Swad</v>
-      </c>
-      <c r="B23">
-        <v>7150</v>
+        <v>Giris</v>
+      </c>
+      <c r="B23" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://www.zomato.com/chennai/giris-potheri/order</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>New Delhi Chole Bhature</v>
-      </c>
-      <c r="B24">
-        <v>1675</v>
+        <v>Elite Food Company</v>
+      </c>
+      <c r="B24" t="str">
+        <v>-</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://www.zomato.com/chennai/elite-food-company-potheri/order</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Biggies Restaurant</v>
-      </c>
-      <c r="B25">
-        <v>9525</v>
+        <v>Coco Clouds</v>
+      </c>
+      <c r="B25" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://www.zomato.com/chennai/coco-clouds-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Delhi Darbar Restaurant</v>
-      </c>
-      <c r="B26">
-        <v>5550</v>
+        <v>Food Feast Cafe-FFC</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://www.zomato.com/chennai/food-feast-cafe-ffc-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Biggies Pizza</v>
-      </c>
-      <c r="B27">
-        <v>3675</v>
+        <v>Shakthi Restaurant</v>
+      </c>
+      <c r="B27" t="str">
+        <v>-</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://www.zomato.com/chennai/shakthi-restaurant-1-potheri/order</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Flavour Restaurant</v>
-      </c>
-      <c r="B28">
-        <v>5850</v>
+        <v>Master Dindugal Zeeraga Samba Briyani</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://www.zomato.com/chennai/master-dindugal-zeeraga-samba-briyani-potheri/order</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Burger King</v>
-      </c>
-      <c r="B29">
-        <v>8125</v>
+        <v>Sakthi Snacks</v>
+      </c>
+      <c r="B29" t="str">
+        <v>-</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://www.zomato.com/chennai/sakthi-snacks-potheri/order</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Pizza Buzzer</v>
-      </c>
-      <c r="B30">
-        <v>175</v>
+        <v>Mary Crown</v>
+      </c>
+      <c r="B30" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://www.zomato.com/chennai/mary-crown-1-potheri/order</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Domino's Pizza</v>
-      </c>
-      <c r="B31">
-        <v>1325</v>
+        <v>Kiyith Bistro</v>
+      </c>
+      <c r="B31" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://www.zomato.com/chennai/kiyith-bistro-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>The Queen Pizza Hut</v>
-      </c>
-      <c r="B32">
-        <v>825</v>
+        <v>Feliz Feast</v>
+      </c>
+      <c r="B32" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://www.zomato.com/chennai/feliz-feast-1-gst-road/order</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Roms Pizza</v>
-      </c>
-      <c r="B33">
-        <v>2075</v>
+        <v>FM Caterers Kitchen</v>
+      </c>
+      <c r="B33" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://www.zomato.com/chennai/fm-caterers-kitchen-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Jagan Chholay Bhaturey</v>
-      </c>
-      <c r="B34">
-        <v>1150</v>
+        <v>Its Just Wow Cafe!</v>
+      </c>
+      <c r="B34" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://www.zomato.com/chennai/its-just-wow-cafe-2-gst-road/order</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Pizza Buzzer</v>
-      </c>
-      <c r="B35">
-        <v>2325</v>
+        <v>Bombay Franki Roll</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://www.zomato.com/chennai/bombay-franki-roll-potheri/order</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>KFC</v>
-      </c>
-      <c r="B36">
-        <v>5600</v>
+        <v>Yurish Fish O Fish</v>
+      </c>
+      <c r="B36" t="str">
+        <v>-</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://www.zomato.com/chennai/yurish-fish-o-fish-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kishan Rathore Chole Bhature</v>
-      </c>
-      <c r="B37">
-        <v>850</v>
+        <v>Parveen Briyani</v>
+      </c>
+      <c r="B37" t="str">
+        <v>-</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://www.zomato.com/chennai/parveen-briyani-potheri/order</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>SF Foodestination</v>
-      </c>
-      <c r="B38">
-        <v>1350</v>
+        <v>Blanc Cafe</v>
+      </c>
+      <c r="B38" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://www.zomato.com/chennai/blanc-cafe-potheri/order</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Gori Kadi Chawal &amp; Aaloo Parathe</v>
-      </c>
-      <c r="B39">
-        <v>850</v>
+        <v>BBQ Ride</v>
+      </c>
+      <c r="B39" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://www.zomato.com/chennai/bbq-ride-gst-road/order</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Ganga Sudh Bhojnalya</v>
-      </c>
-      <c r="B40">
-        <v>4175</v>
+        <v>Emo Pizza</v>
+      </c>
+      <c r="B40" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://www.zomato.com/chennai/emo-pizza-potheri/order</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hangries</v>
-      </c>
-      <c r="B41">
-        <v>3025</v>
+        <v>Pizza Plazza</v>
+      </c>
+      <c r="B41" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://www.zomato.com/chennai/pizza-plazza-1-potheri/order</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Bikanervala</v>
-      </c>
-      <c r="B42">
-        <v>3100</v>
+        <v>Flavorsome Restaurant Chase The Flavors</v>
+      </c>
+      <c r="B42" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://www.zomato.com/chennai/flavorsome-restaurant-chase-the-flavors-potheri/order</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>La Pino'z Pizza</v>
-      </c>
-      <c r="B43">
-        <v>2400</v>
+        <v>Five Star Chicken</v>
+      </c>
+      <c r="B43" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>https://www.zomato.com/chennai/five-star-chicken-1-potheri/order</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Shan-E-Karim</v>
-      </c>
-      <c r="B44">
-        <v>2825</v>
+        <v>Fried N Burger's</v>
+      </c>
+      <c r="B44" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://www.zomato.com/chennai/fried-n-burgers-1-gst-road/order</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Central Cafe &amp; Restaurant</v>
-      </c>
-      <c r="B45">
-        <v>1450</v>
+        <v>Pizza Story</v>
+      </c>
+      <c r="B45" t="str">
+        <v>New</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>https://www.zomato.com/chennai/pizza-story-potheri/order</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Vadilal Ice Creams</v>
-      </c>
-      <c r="B46">
-        <v>125</v>
+        <v>Parrota King</v>
+      </c>
+      <c r="B46" t="str">
+        <v>-</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>https://www.zomato.com/chennai/parrota-king-potheri/order</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Vijay Madrasi Dosa Wale</v>
-      </c>
-      <c r="B47">
-        <v>1375</v>
+        <v>The Curry Point</v>
+      </c>
+      <c r="B47" t="str">
+        <v>-</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://www.zomato.com/chennai/the-curry-point-potheri/order</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Burger Singh - Big Punjabi Burgers</v>
-      </c>
-      <c r="B48">
-        <v>250</v>
+        <v>Sandwich Station</v>
+      </c>
+      <c r="B48" t="str">
+        <v>New</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>https://www.zomato.com/chennai/sandwich-station-potheri/order</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ghar Se Rasoi</v>
-      </c>
-      <c r="B49">
-        <v>4800</v>
+        <v>Rice N Noodles</v>
+      </c>
+      <c r="B49" t="str">
+        <v>New</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>https://www.zomato.com/chennai/rice-n-noodles-potheri/order</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Shree Fast Food</v>
-      </c>
-      <c r="B50">
-        <v>1475</v>
+        <v>Parrota House</v>
+      </c>
+      <c r="B50" t="str">
+        <v>-</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>https://www.zomato.com/chennai/parrota-house-potheri/order</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Daimond Crust Pizza And Burger</v>
-      </c>
-      <c r="B51">
-        <v>950</v>
+        <v>Noodles Point</v>
+      </c>
+      <c r="B51" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://www.zomato.com/chennai/noodles-point-potheri/order</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Sheetal Pay Bhandar</v>
-      </c>
-      <c r="B52">
-        <v>2775</v>
+        <v>Asian Cafe - Delicious</v>
+      </c>
+      <c r="B52" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>https://www.zomato.com/chennai/asian-cafe-delicious-potheri/order</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Punjabi Tadka</v>
-      </c>
-      <c r="B53">
-        <v>2125</v>
+        <v>300Ml-Tea Town</v>
+      </c>
+      <c r="B53" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://www.zomato.com/chennai/300ml-tea-town-potheri/order</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Kaka Shudh Bhojanalya</v>
-      </c>
-      <c r="B54">
-        <v>1300</v>
+        <v>Namma Veetu Biryani</v>
+      </c>
+      <c r="B54" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://www.zomato.com/chennai/namma-veetu-biryani-potheri/order</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Joeys Pizza</v>
-      </c>
-      <c r="B55">
-        <v>1050</v>
+        <v>Biryani Corner</v>
+      </c>
+      <c r="B55" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://www.zomato.com/chennai/biryani-corner-potheri/order</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Punjabi Vaishno Dhaba</v>
-      </c>
-      <c r="B56">
-        <v>1600</v>
+        <v>Level Up Biryani - Biryani Is Our Religion</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://www.zomato.com/chennai/level-up-biryani-biryani-is-our-religion-potheri/order</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Madrasi Dosa</v>
-      </c>
-      <c r="B57">
-        <v>1325</v>
+        <v>Pizza 4 U</v>
+      </c>
+      <c r="B57" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://www.zomato.com/chennai/pizza-4-u-potheri/order</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Baba Di Hatti</v>
-      </c>
-      <c r="B58">
-        <v>1500</v>
+        <v>Karaikudi Foods</v>
+      </c>
+      <c r="B58" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://www.zomato.com/chennai/karaikudi-foods-1-gst-road/order</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Shalu Bakery</v>
-      </c>
-      <c r="B59">
-        <v>1025</v>
+        <v>Bengali Mess</v>
+      </c>
+      <c r="B59" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://www.zomato.com/chennai/bengali-mess-1-potheri/order</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Pizza King</v>
-      </c>
-      <c r="B60">
-        <v>800</v>
+        <v>Just Now Came Bro Cafe</v>
+      </c>
+      <c r="B60" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60" t="str">
+        <v>https://www.zomato.com/chennai/just-now-came-bro-cafe-gst-road/order</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Al-tazaj</v>
-      </c>
-      <c r="B61">
-        <v>625</v>
+        <v>Lassi Shop</v>
+      </c>
+      <c r="B61" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://www.zomato.com/chennai/lassi-shop-4-potheri/order</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>The New Taste Bakery</v>
-      </c>
-      <c r="B62">
-        <v>725</v>
+        <v>Ming's Restaurant</v>
+      </c>
+      <c r="B62" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62" t="str">
+        <v>https://www.zomato.com/chennai/mings-restaurant-potheri/order</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>New Wah Bhai Wah</v>
-      </c>
-      <c r="B63">
-        <v>2275</v>
+        <v>Chat N Eat</v>
+      </c>
+      <c r="B63" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://www.zomato.com/chennai/chat-n-eat-potheri/order</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Satguru Shudh Bhojanaalya</v>
-      </c>
-      <c r="B64">
-        <v>900</v>
+        <v>Pizza On Time</v>
+      </c>
+      <c r="B64" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="E64" t="str">
+        <v>https://www.zomato.com/chennai/pizza-on-time-1-potheri/order</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Baap Of Rolls</v>
-      </c>
-      <c r="B65">
-        <v>3600</v>
+        <v>Creamy Pasta</v>
+      </c>
+      <c r="B65" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="E65" t="str">
+        <v>https://www.zomato.com/chennai/creamy-pasta-potheri/order</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Kakkar's Kitchen</v>
-      </c>
-      <c r="B66">
-        <v>2525</v>
+        <v>Pizza X Box</v>
+      </c>
+      <c r="B66" t="str">
+        <v>New</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66" t="str">
+        <v>https://www.zomato.com/chennai/pizza-x-box-potheri/order</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mangi Da Dhabha</v>
-      </c>
-      <c r="B67">
-        <v>900</v>
+        <v>Fusion Rice Box</v>
+      </c>
+      <c r="B67" t="str">
+        <v>New</v>
+      </c>
+      <c r="D67">
+        <v>50</v>
+      </c>
+      <c r="E67" t="str">
+        <v>https://www.zomato.com/chennai/fusion-rice-box-potheri/order</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Bhatura Chowk</v>
-      </c>
-      <c r="B68">
-        <v>475</v>
+        <v>Madras Biryani &amp; Grill Centre</v>
+      </c>
+      <c r="B68" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68" t="str">
+        <v>https://www.zomato.com/chennai/madras-biryani-grill-centre-potheri/order</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Shivam Restaurant</v>
-      </c>
-      <c r="B69">
-        <v>150</v>
+        <v>Desi Addiction - We Serve Passion</v>
+      </c>
+      <c r="B69" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69" t="str">
+        <v>https://www.zomato.com/chennai/desi-addiction-we-serve-passion-potheri/order</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>China Town</v>
-      </c>
-      <c r="B70">
-        <v>1650</v>
+        <v>Elite Biryani</v>
+      </c>
+      <c r="B70" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70" t="str">
+        <v>https://www.zomato.com/chennai/elite-biryani-potheri/order</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Chiranjee Lal Chaat Bhandar</v>
-      </c>
-      <c r="B71">
-        <v>800</v>
+        <v>Baked &amp; Smashed</v>
+      </c>
+      <c r="B71" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D71">
+        <v>75</v>
+      </c>
+      <c r="E71" t="str">
+        <v>https://www.zomato.com/chennai/baked-smashed-potheri/order</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Manoj Bhai Kadi Chawal Wale</v>
-      </c>
-      <c r="B72">
-        <v>500</v>
+        <v>Punjabi Lassi</v>
+      </c>
+      <c r="B72" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D72">
+        <v>75</v>
+      </c>
+      <c r="E72" t="str">
+        <v>https://www.zomato.com/chennai/punjabi-lassi-potheri/order</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Italino Pizza</v>
-      </c>
-      <c r="B73">
-        <v>725</v>
+        <v>All Time Snacks</v>
+      </c>
+      <c r="B73" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D73">
+        <v>75</v>
+      </c>
+      <c r="E73" t="str">
+        <v>https://www.zomato.com/chennai/all-time-snacks-potheri/order</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Feast Of Heaven</v>
-      </c>
-      <c r="B74">
-        <v>5275</v>
+        <v>Biryani Point</v>
+      </c>
+      <c r="B74" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74" t="str">
+        <v>https://www.zomato.com/chennai/biryani-point-1-potheri/order</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Nazeer Foods</v>
-      </c>
-      <c r="B75">
-        <v>3450</v>
+        <v>Chennai's Spices - Chase The Flavors</v>
+      </c>
+      <c r="B75" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75" t="str">
+        <v>https://www.zomato.com/chennai/chennais-spices-chase-the-flavors-potheri/order</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Sheetal Hotel And Restaurant</v>
-      </c>
-      <c r="B76">
-        <v>1675</v>
+        <v>Burger Beast</v>
+      </c>
+      <c r="B76" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" t="str">
+        <v>https://www.zomato.com/chennai/burger-beast-potheri/order</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Zafraan Family Restaurant</v>
-      </c>
-      <c r="B77">
-        <v>725</v>
+        <v>Biryani Aromas</v>
+      </c>
+      <c r="B77" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77" t="str">
+        <v>https://www.zomato.com/chennai/biryani-aromas-potheri/order</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Marwari Bhoj</v>
-      </c>
-      <c r="B78">
-        <v>1200</v>
+        <v>Pizza Pizzeria</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="D78">
+        <v>75</v>
+      </c>
+      <c r="E78" t="str">
+        <v>https://www.zomato.com/chennai/pizza-pizzeria-potheri/order</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Rollstic</v>
-      </c>
-      <c r="B79">
-        <v>1250</v>
+        <v>The Engineer's Food Theory - Delight in Every Bite</v>
+      </c>
+      <c r="B79" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D79">
+        <v>75</v>
+      </c>
+      <c r="E79" t="str">
+        <v>https://www.zomato.com/chennai/the-engineers-food-theory-delight-in-every-bite-potheri/order</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>The Kitchen Hotspot</v>
-      </c>
-      <c r="B80">
-        <v>1375</v>
+        <v>Signal Tod Cafe</v>
+      </c>
+      <c r="B80" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80" t="str">
+        <v>https://www.zomato.com/chennai/signal-tod-cafe-2-gst-road/order</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>The Moonstar Bakery</v>
-      </c>
-      <c r="B81">
-        <v>1025</v>
+        <v>O2 Biriyani Shop</v>
+      </c>
+      <c r="B81" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81" t="str">
+        <v>https://www.zomato.com/chennai/o2-biriyani-shop-potheri/order</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Jain Samose Wala</v>
-      </c>
-      <c r="B82">
-        <v>1275</v>
+        <v>Riya Cool Cakes and Sweets</v>
+      </c>
+      <c r="B82" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82" t="str">
+        <v>https://www.zomato.com/chennai/riya-cool-cakes-and-sweets-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Pandit Ji Paranthe Wale</v>
-      </c>
-      <c r="B83">
-        <v>550</v>
+        <v>Navratri Specials by LunchBox</v>
+      </c>
+      <c r="B83" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83" t="str">
+        <v>https://www.zomato.com/chennai/navratri-specials-by-lunchbox-potheri/order</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Arora's Bakers &amp; Snacks Corner</v>
-      </c>
-      <c r="B84">
-        <v>450</v>
+        <v>Biryani Life</v>
+      </c>
+      <c r="B84" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84" t="str">
+        <v>https://www.zomato.com/chennai/biryani-life-potheri/order</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>My Kitchen</v>
-      </c>
-      <c r="B85">
-        <v>625</v>
+        <v>Spicy Rice</v>
+      </c>
+      <c r="B85" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="str">
+        <v>https://www.zomato.com/chennai/spicy-rice-potheri/order</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Lion Restaurant</v>
-      </c>
-      <c r="B86">
-        <v>1825</v>
+        <v>Shawarma Wrap- Roll Your Secrets</v>
+      </c>
+      <c r="B86" t="str">
+        <v>New</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86" t="str">
+        <v>https://www.zomato.com/chennai/shawarma-wrap-roll-your-secrets-potheri/order</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Italian Pizza King</v>
-      </c>
-      <c r="B87">
-        <v>225</v>
+        <v>The Maggi Bowl</v>
+      </c>
+      <c r="B87" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87" t="str">
+        <v>https://www.zomato.com/chennai/the-maggi-bowl-potheri/order</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Indiana Bar &amp; Restaurant</v>
-      </c>
-      <c r="B88">
-        <v>4200</v>
+        <v>Fusion Wrap</v>
+      </c>
+      <c r="B88" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88" t="str">
+        <v>https://www.zomato.com/chennai/fusion-wrap-potheri/order</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>The Cake Palace</v>
-      </c>
-      <c r="B89">
-        <v>1250</v>
+        <v>The Pizza Box</v>
+      </c>
+      <c r="B89" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89" t="str">
+        <v>https://www.zomato.com/chennai/the-pizza-box-potheri/order</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Desi Handi Wala</v>
-      </c>
-      <c r="B90">
-        <v>1225</v>
+        <v>Snacks @ 49</v>
+      </c>
+      <c r="B90" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90" t="str">
+        <v>https://www.zomato.com/chennai/snacks-@-49-potheri/order</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Chinese Hut</v>
-      </c>
-      <c r="B91">
-        <v>775</v>
+        <v>Annashri Restaurant</v>
+      </c>
+      <c r="B91" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D91">
+        <v>125</v>
+      </c>
+      <c r="E91" t="str">
+        <v>https://www.zomato.com/chennai/annashri-restaurant-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Juice Box</v>
-      </c>
-      <c r="B92">
-        <v>325</v>
+        <v>Dawooth Biryani Center</v>
+      </c>
+      <c r="B92" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D92">
+        <v>125</v>
+      </c>
+      <c r="E92" t="str">
+        <v>https://www.zomato.com/chennai/dawooth-biryani-center-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Havmor Ice Cream</v>
-      </c>
-      <c r="B93">
-        <v>2075</v>
+        <v>Liquidzz</v>
+      </c>
+      <c r="B93" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D93">
+        <v>125</v>
+      </c>
+      <c r="E93" t="str">
+        <v>https://www.zomato.com/chennai/liquidzz-potheri/order</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>The Kesar</v>
-      </c>
-      <c r="B94">
-        <v>1100</v>
+        <v>1 Kg - Biryani Point</v>
+      </c>
+      <c r="B94" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D94">
+        <v>125</v>
+      </c>
+      <c r="E94" t="str">
+        <v>https://www.zomato.com/chennai/1-kg-biryani-point-potheri/order</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Kailash Dairy &amp; Food Court</v>
-      </c>
-      <c r="B95">
-        <v>1275</v>
+        <v>Parrota Paradise</v>
+      </c>
+      <c r="B95" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D95">
+        <v>125</v>
+      </c>
+      <c r="E95" t="str">
+        <v>https://www.zomato.com/chennai/parrota-paradise-potheri/order</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Avon Bakers</v>
-      </c>
-      <c r="B96">
-        <v>1775</v>
+        <v>The Bowl Company</v>
+      </c>
+      <c r="B96" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D96">
+        <v>125</v>
+      </c>
+      <c r="E96" t="str">
+        <v>https://www.zomato.com/chennai/the-bowl-company-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Chatori Dadi</v>
-      </c>
-      <c r="B97">
-        <v>1175</v>
+        <v>Tea Time</v>
+      </c>
+      <c r="B97" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D97">
+        <v>125</v>
+      </c>
+      <c r="E97" t="str">
+        <v>https://www.zomato.com/chennai/tea-time-potheri/order</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Everfresh</v>
-      </c>
-      <c r="B98">
-        <v>450</v>
+        <v>Chai Ok Please</v>
+      </c>
+      <c r="B98" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D98">
+        <v>125</v>
+      </c>
+      <c r="E98" t="str">
+        <v>https://www.zomato.com/chennai/chai-ok-please-1-potheri/order</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Udupi Dosa Express</v>
-      </c>
-      <c r="B99">
-        <v>1675</v>
+        <v>Ocean Of BBQ</v>
+      </c>
+      <c r="B99" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D99">
+        <v>125</v>
+      </c>
+      <c r="E99" t="str">
+        <v>https://www.zomato.com/chennai/ocean-of-bbq-potheri/order</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Kanha Ji Food Corner</v>
-      </c>
-      <c r="B100">
-        <v>750</v>
+        <v>Heena Biryani</v>
+      </c>
+      <c r="B100" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D100">
+        <v>125</v>
+      </c>
+      <c r="E100" t="str">
+        <v>https://www.zomato.com/chennai/heena-biryani-potheri/order</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>The Cake Factory</v>
-      </c>
-      <c r="B101">
-        <v>1550</v>
+        <v>Andhi Rooftop Diner</v>
+      </c>
+      <c r="B101" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D101">
+        <v>150</v>
+      </c>
+      <c r="E101" t="str">
+        <v>https://www.zomato.com/chennai/andhi-rooftop-diner-potheri/order</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Al-Delhi Darbar</v>
-      </c>
-      <c r="B102">
-        <v>550</v>
+        <v>Indian Spices</v>
+      </c>
+      <c r="B102" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D102">
+        <v>150</v>
+      </c>
+      <c r="E102" t="str">
+        <v>https://www.zomato.com/chennai/indian-spices-potheri/order</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Kingdom Of Momos</v>
-      </c>
-      <c r="B103">
-        <v>675</v>
+        <v>Roti Kings</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D103">
+        <v>150</v>
+      </c>
+      <c r="E103" t="str">
+        <v>https://www.zomato.com/chennai/roti-kings-potheri/order</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Subhash Vaishno Dhaba</v>
-      </c>
-      <c r="B104">
-        <v>300</v>
+        <v>Chinese Noodle House</v>
+      </c>
+      <c r="B104" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D104">
+        <v>150</v>
+      </c>
+      <c r="E104" t="str">
+        <v>https://www.zomato.com/chennai/chinese-noodle-house-potheri/order</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>The Green Yard Cafe</v>
-      </c>
-      <c r="B105">
-        <v>525</v>
+        <v>Maggi Point</v>
+      </c>
+      <c r="B105" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="D105">
+        <v>150</v>
+      </c>
+      <c r="E105" t="str">
+        <v>https://www.zomato.com/chennai/maggi-point-potheri/order</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Dosa 50</v>
-      </c>
-      <c r="B106">
-        <v>675</v>
+        <v>Fry N Eat</v>
+      </c>
+      <c r="B106" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D106">
+        <v>150</v>
+      </c>
+      <c r="E106" t="str">
+        <v>https://www.zomato.com/chennai/fry-n-eat-potheri/order</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Shristi Fast Food</v>
-      </c>
-      <c r="B107">
-        <v>975</v>
+        <v>VSP Restaurant</v>
+      </c>
+      <c r="B107" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D107">
+        <v>175</v>
+      </c>
+      <c r="E107" t="str">
+        <v>https://www.zomato.com/chennai/vsp-restaurant-potheri/order</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Funky Pizza</v>
-      </c>
-      <c r="B108">
-        <v>675</v>
+        <v>The Sandwich Man</v>
+      </c>
+      <c r="B108" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D108">
+        <v>175</v>
+      </c>
+      <c r="E108" t="str">
+        <v>https://www.zomato.com/chennai/the-sandwich-man-potheri/order</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Chulha Chowka Restaurant</v>
-      </c>
-      <c r="B109">
-        <v>1175</v>
+        <v>Bliss Cafe</v>
+      </c>
+      <c r="B109" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="D109">
+        <v>200</v>
+      </c>
+      <c r="E109" t="str">
+        <v>https://www.zomato.com/chennai/bliss-cafe-potheri/order</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Sandalwood Kitchen</v>
-      </c>
-      <c r="B110">
-        <v>1300</v>
+        <v>Mumbai Kulfi</v>
+      </c>
+      <c r="B110" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="D110">
+        <v>200</v>
+      </c>
+      <c r="E110" t="str">
+        <v>https://www.zomato.com/chennai/mumbai-kulfi-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Pizza Buzzer</v>
-      </c>
-      <c r="B111">
-        <v>175</v>
+        <v>The Biryani Life</v>
+      </c>
+      <c r="B111" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D111">
+        <v>200</v>
+      </c>
+      <c r="E111" t="str">
+        <v>https://www.zomato.com/chennai/the-biryani-life-potheri/order</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Calcutta Sweets</v>
-      </c>
-      <c r="B112">
-        <v>575</v>
+        <v>Chinese Vinese</v>
+      </c>
+      <c r="B112" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D112">
+        <v>200</v>
+      </c>
+      <c r="E112" t="str">
+        <v>https://www.zomato.com/chennai/chinese-vinese-potheri/order</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Son Of Swad</v>
-      </c>
-      <c r="B113">
-        <v>1325</v>
+        <v>Cheese Burst</v>
+      </c>
+      <c r="B113" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D113">
+        <v>200</v>
+      </c>
+      <c r="E113" t="str">
+        <v>https://www.zomato.com/chennai/cheese-burst-potheri/order</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Gaur N Gupta Soya Chaap</v>
-      </c>
-      <c r="B114">
-        <v>1000</v>
+        <v>Twinkle Dipz</v>
+      </c>
+      <c r="B114" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D114">
+        <v>225</v>
+      </c>
+      <c r="E114" t="str">
+        <v>https://www.zomato.com/chennai/twinkle-dipz-gst-road/order</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shiv Doodh Bhandar</v>
-      </c>
-      <c r="B115">
-        <v>1050</v>
+        <v>Dine Out Cafeteria</v>
+      </c>
+      <c r="B115" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="D115">
+        <v>225</v>
+      </c>
+      <c r="E115" t="str">
+        <v>https://www.zomato.com/chennai/dine-out-cafeteria-potheri/order</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>New Radhe Chaat Bhandar</v>
-      </c>
-      <c r="B116">
-        <v>475</v>
+        <v>The Brooklyn Creamery - Healthy Ice Cream</v>
+      </c>
+      <c r="B116" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D116">
+        <v>225</v>
+      </c>
+      <c r="E116" t="str">
+        <v>https://www.zomato.com/chennai/the-brooklyn-creamery-healthy-ice-cream-gst-road/order</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Sachin Chole Bhature</v>
-      </c>
-      <c r="B117">
-        <v>50</v>
+        <v>Streetza Pizza</v>
+      </c>
+      <c r="B117" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D117">
+        <v>225</v>
+      </c>
+      <c r="E117" t="str">
+        <v>https://www.zomato.com/chennai/streetza-pizza-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>The Pizza Station</v>
-      </c>
-      <c r="B118">
-        <v>425</v>
+        <v>98 Biryani Cafe</v>
+      </c>
+      <c r="B118" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D118">
+        <v>250</v>
+      </c>
+      <c r="E118" t="str">
+        <v>https://www.zomato.com/chennai/98-biryani-cafe-potheri/order</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Al-Karim</v>
-      </c>
-      <c r="B119">
-        <v>4100</v>
+        <v>Irani Chai House</v>
+      </c>
+      <c r="B119" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D119">
+        <v>275</v>
+      </c>
+      <c r="E119" t="str">
+        <v>https://www.zomato.com/chennai/irani-chai-house-1-potheri/order</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Black Brickk's</v>
-      </c>
-      <c r="B120">
-        <v>475</v>
+        <v>Potheri Budget Biryani</v>
+      </c>
+      <c r="B120" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D120">
+        <v>325</v>
+      </c>
+      <c r="E120" t="str">
+        <v>https://www.zomato.com/chennai/potheri-budget-biryani-potheri/order</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Subhash Vaishno Dhaba</v>
-      </c>
-      <c r="B121">
-        <v>525</v>
+        <v>Pizza N Pie</v>
+      </c>
+      <c r="B121" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D121">
+        <v>350</v>
+      </c>
+      <c r="E121" t="str">
+        <v>https://www.zomato.com/chennai/pizza-n-pie-potheri/order</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Suman Foods Corner</v>
-      </c>
-      <c r="B122">
-        <v>1400</v>
+        <v>Firangi Bake</v>
+      </c>
+      <c r="B122" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D122">
+        <v>375</v>
+      </c>
+      <c r="E122" t="str">
+        <v>https://www.zomato.com/chennai/firangi-bake-potheri/order</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Aceoven Pizza</v>
-      </c>
-      <c r="B123">
-        <v>475</v>
+        <v>Meat and Eat</v>
+      </c>
+      <c r="B123" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D123">
+        <v>375</v>
+      </c>
+      <c r="E123" t="str">
+        <v>https://www.zomato.com/chennai/meat-and-eat-gst-road/order</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Pizza Village</v>
-      </c>
-      <c r="B124">
-        <v>250</v>
+        <v>Eat More Fried Chicken</v>
+      </c>
+      <c r="B124" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D124">
+        <v>375</v>
+      </c>
+      <c r="E124" t="str">
+        <v>https://www.zomato.com/chennai/eat-more-fried-chicken-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Punjab Sweets &amp; Family Restaurant</v>
-      </c>
-      <c r="B125">
+        <v>Real Food Mall</v>
+      </c>
+      <c r="B125" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D125">
         <v>400</v>
+      </c>
+      <c r="E125" t="str">
+        <v>https://www.zomato.com/chennai/real-food-mall-potheri/order</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>The Biryani Life</v>
-      </c>
-      <c r="B126">
-        <v>650</v>
+        <v>Biryani ‘O’ Clock</v>
+      </c>
+      <c r="B126" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D126">
+        <v>450</v>
+      </c>
+      <c r="E126" t="str">
+        <v>https://www.zomato.com/chennai/biryani-o-clock-potheri/order</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Barbeque Nation</v>
-      </c>
-      <c r="B127">
-        <v>1000</v>
+        <v>Kerela Kuttanadan Restaurant</v>
+      </c>
+      <c r="B127" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D127">
+        <v>475</v>
+      </c>
+      <c r="E127" t="str">
+        <v>https://www.zomato.com/chennai/kerela-kuttanadan-restaurant-potheri/order</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Behrouz Biryani</v>
-      </c>
-      <c r="B128">
-        <v>2725</v>
+        <v>Pushpam's</v>
+      </c>
+      <c r="B128" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D128">
+        <v>475</v>
+      </c>
+      <c r="E128" t="str">
+        <v>https://www.zomato.com/chennai/pushpams-potheri/order</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ramlal Chhole Bhature Wale And Fast Food</v>
-      </c>
-      <c r="B129">
-        <v>100</v>
+        <v>Biryani By Kg</v>
+      </c>
+      <c r="B129" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D129">
+        <v>475</v>
+      </c>
+      <c r="E129" t="str">
+        <v>https://www.zomato.com/chennai/biryani-by-kg-potheri/order</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Khana Khazana Junction</v>
-      </c>
-      <c r="B130">
-        <v>700</v>
+        <v>Cheesy Juicy Burgers</v>
+      </c>
+      <c r="B130" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D130">
+        <v>525</v>
+      </c>
+      <c r="E130" t="str">
+        <v>https://www.zomato.com/chennai/cheesy-juicy-burgers-gst-road/order</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Box-e-Biryani</v>
-      </c>
-      <c r="B131">
-        <v>825</v>
+        <v>Spices Biriyani</v>
+      </c>
+      <c r="B131" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D131">
+        <v>525</v>
+      </c>
+      <c r="E131" t="str">
+        <v>https://www.zomato.com/chennai/spices-biriyani-potheri/order</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Punjabi Angithi</v>
-      </c>
-      <c r="B132">
-        <v>375</v>
+        <v>Bihari Dhaba</v>
+      </c>
+      <c r="B132" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D132">
+        <v>575</v>
+      </c>
+      <c r="E132" t="str">
+        <v>https://www.zomato.com/chennai/bihari-dhaba-potheri/order</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Flavour Restaurant</v>
-      </c>
-      <c r="B133">
-        <v>175</v>
+        <v>Drunken Monkey</v>
+      </c>
+      <c r="B133" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="D133">
+        <v>575</v>
+      </c>
+      <c r="E133" t="str">
+        <v>https://www.zomato.com/chennai/drunken-monkey-potheri/order</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Paranthe Wali Gali</v>
-      </c>
-      <c r="B134">
-        <v>350</v>
+        <v>Al Sham Barbeque Restaurant</v>
+      </c>
+      <c r="B134" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D134">
+        <v>650</v>
+      </c>
+      <c r="E134" t="str">
+        <v>https://www.zomato.com/chennai/al-sham-barbeque-restaurant-gst-road/order</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Amritsari Kulcha King</v>
-      </c>
-      <c r="B135">
-        <v>500</v>
+        <v>Tibetan Cafe</v>
+      </c>
+      <c r="B135" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D135">
+        <v>725</v>
+      </c>
+      <c r="E135" t="str">
+        <v>https://www.zomato.com/chennai/tibetan-cafe-2-potheri/order</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Shalu Bakers &amp; Sweets</v>
-      </c>
-      <c r="B136">
-        <v>250</v>
+        <v>Sweet Truth - Cake and Desserts</v>
+      </c>
+      <c r="B136" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D136">
+        <v>775</v>
+      </c>
+      <c r="E136" t="str">
+        <v>https://www.zomato.com/chennai/sweet-truth-cake-and-desserts-potheri/order</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Famous Lassi House</v>
-      </c>
-      <c r="B137">
-        <v>200</v>
+        <v>The Good Bowl</v>
+      </c>
+      <c r="B137" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D137">
+        <v>800</v>
+      </c>
+      <c r="E137" t="str">
+        <v>https://www.zomato.com/chennai/the-good-bowl-potheri/order</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Laziz Pizza</v>
-      </c>
-      <c r="B138">
-        <v>75</v>
+        <v>Rajasthani Restaurant</v>
+      </c>
+      <c r="B138" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D138">
+        <v>825</v>
+      </c>
+      <c r="E138" t="str">
+        <v>https://www.zomato.com/chennai/rajasthani-restaurant-potheri/order</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Bhai Ji Mast Chaap Wale</v>
-      </c>
-      <c r="B139">
-        <v>2175</v>
+        <v>Oh! My God</v>
+      </c>
+      <c r="B139" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D139">
+        <v>850</v>
+      </c>
+      <c r="E139" t="str">
+        <v>https://www.zomato.com/chennai/oh-my-god-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Snackers</v>
-      </c>
-      <c r="B140">
-        <v>575</v>
+        <v>HR05 Food Plaza</v>
+      </c>
+      <c r="B140" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="D140">
+        <v>875</v>
+      </c>
+      <c r="E140" t="str">
+        <v>https://www.zomato.com/chennai/hr05-food-plaza-potheri/order</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Bombay Pizza</v>
-      </c>
-      <c r="B141">
-        <v>125</v>
+        <v>Biryani Point</v>
+      </c>
+      <c r="B141" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D141">
+        <v>900</v>
+      </c>
+      <c r="E141" t="str">
+        <v>https://www.zomato.com/chennai/biryani-point-potheri/order</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>New Delicious Sweets</v>
-      </c>
-      <c r="B142">
-        <v>875</v>
+        <v>Sri Aarya Bhavan</v>
+      </c>
+      <c r="B142" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D142">
+        <v>950</v>
+      </c>
+      <c r="E142" t="str">
+        <v>https://www.zomato.com/chennai/sri-aarya-bhavan-gst-road/order</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Gyani Ji Naan Wale</v>
-      </c>
-      <c r="B143">
-        <v>50</v>
+        <v>Spoons Restaurant &amp; Cafe</v>
+      </c>
+      <c r="B143" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D143">
+        <v>1050</v>
+      </c>
+      <c r="E143" t="str">
+        <v>https://www.zomato.com/chennai/spoons-restaurant-cafe-potheri/order</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Madrasi Dosa</v>
-      </c>
-      <c r="B144">
-        <v>375</v>
+        <v>Chicken N Kitchen</v>
+      </c>
+      <c r="B144" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D144">
+        <v>1050</v>
+      </c>
+      <c r="E144" t="str">
+        <v>https://www.zomato.com/chennai/chicken-n-kitchen-potheri/order</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Punjabi Dhaba</v>
-      </c>
-      <c r="B145">
-        <v>150</v>
+        <v>Behrouz Biryani</v>
+      </c>
+      <c r="B145" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D145">
+        <v>1175</v>
+      </c>
+      <c r="E145" t="str">
+        <v>https://www.zomato.com/chennai/behrouz-biryani-potheri/order</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Bitto Vashnav Hotel</v>
-      </c>
-      <c r="B146">
-        <v>600</v>
+        <v>Combo Adda</v>
+      </c>
+      <c r="B146" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D146">
+        <v>1375</v>
+      </c>
+      <c r="E146" t="str">
+        <v>https://www.zomato.com/chennai/combo-adda-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>FoodBox</v>
-      </c>
-      <c r="B147">
-        <v>275</v>
+        <v>LunchBox - Meals and Thalis</v>
+      </c>
+      <c r="B147" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="D147">
+        <v>1400</v>
+      </c>
+      <c r="E147" t="str">
+        <v>https://www.zomato.com/chennai/lunchbox-meals-and-thalis-potheri/order</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Planet Pizza</v>
-      </c>
-      <c r="B148">
-        <v>50</v>
+        <v>Hot Chips</v>
+      </c>
+      <c r="B148" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D148">
+        <v>1450</v>
+      </c>
+      <c r="E148" t="str">
+        <v>https://www.zomato.com/chennai/hot-chips-gst-road/order</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Kakkar's Chaap</v>
-      </c>
-      <c r="B149">
-        <v>150</v>
+        <v>Golcondas</v>
+      </c>
+      <c r="B149" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D149">
+        <v>1575</v>
+      </c>
+      <c r="E149" t="str">
+        <v>https://www.zomato.com/chennai/golcondas-potheri/order</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Chaudhary Dairy And Confectionery</v>
-      </c>
-      <c r="B150">
-        <v>275</v>
+        <v>Faasos - Wraps &amp; Rolls</v>
+      </c>
+      <c r="B150" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D150">
+        <v>1650</v>
+      </c>
+      <c r="E150" t="str">
+        <v>https://www.zomato.com/chennai/faasos-wraps-rolls-potheri/order</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>House of Momos</v>
-      </c>
-      <c r="B151">
-        <v>500</v>
+        <v>Sathyam Vegetarian Restaurant</v>
+      </c>
+      <c r="B151" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D151">
+        <v>1750</v>
+      </c>
+      <c r="E151" t="str">
+        <v>https://www.zomato.com/chennai/sathyam-vegetarian-restaurant-1-gst-road/order</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>7 Star Bakers</v>
-      </c>
-      <c r="B152">
-        <v>800</v>
+        <v>Subway</v>
+      </c>
+      <c r="B152" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D152">
+        <v>1775</v>
+      </c>
+      <c r="E152" t="str">
+        <v>https://www.zomato.com/chennai/subway-potheri/order</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Faasos - Wraps &amp; Rolls</v>
-      </c>
-      <c r="B153">
-        <v>3400</v>
+        <v>Anjappar</v>
+      </c>
+      <c r="B153" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D153">
+        <v>1875</v>
+      </c>
+      <c r="E153" t="str">
+        <v>https://www.zomato.com/chennai/anjappar-gst-road/order</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>U Turn Milk Cocktails</v>
-      </c>
-      <c r="B154">
-        <v>950</v>
+        <v>Madurai Mess</v>
+      </c>
+      <c r="B154" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D154">
+        <v>2175</v>
+      </c>
+      <c r="E154" t="str">
+        <v>https://www.zomato.com/chennai/madurai-mess-gst-road/order</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Pizzeria Bistro</v>
-      </c>
-      <c r="B155">
-        <v>375</v>
+        <v>Domino's Pizza</v>
+      </c>
+      <c r="B155" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D155">
+        <v>2225</v>
+      </c>
+      <c r="E155" t="str">
+        <v>https://www.zomato.com/chennai/dominos-pizza-2-kanchipuram-district/order</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Mini Da Restaurant And Caterers</v>
-      </c>
-      <c r="B156">
-        <v>125</v>
+        <v>Ovenstory Pizza</v>
+      </c>
+      <c r="B156" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="D156">
+        <v>2550</v>
+      </c>
+      <c r="E156" t="str">
+        <v>https://www.zomato.com/chennai/ovenstory-pizza-1-potheri/order</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>I Want Paris</v>
-      </c>
-      <c r="B157">
-        <v>675</v>
+        <v>Oxygen</v>
+      </c>
+      <c r="B157" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D157">
+        <v>2850</v>
+      </c>
+      <c r="E157" t="str">
+        <v>https://www.zomato.com/chennai/oxygen-potheri/order</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>The Cake Factory</v>
-      </c>
-      <c r="B158">
-        <v>550</v>
+        <v>Loiee Mithai &amp; Rasoi</v>
+      </c>
+      <c r="B158" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D158">
+        <v>3650</v>
+      </c>
+      <c r="E158" t="str">
+        <v>https://www.zomato.com/chennai/loiee-mithai-rasoi-potheri/order</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Lean On - The Fit Food Hub</v>
-      </c>
-      <c r="B159">
-        <v>1700</v>
+        <v>Pizza Hut</v>
+      </c>
+      <c r="B159" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D159">
+        <v>5375</v>
+      </c>
+      <c r="E159" t="str">
+        <v>https://www.zomato.com/chennai/pizza-hut-potheri/order</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Citi Bakers</v>
-      </c>
-      <c r="B160">
-        <v>800</v>
+        <v>Ambur Star Briyani</v>
+      </c>
+      <c r="B160" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D160">
+        <v>5875</v>
+      </c>
+      <c r="E160" t="str">
+        <v>https://www.zomato.com/chennai/ambur-star-briyani-potheri/order</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>King Bakeries</v>
-      </c>
-      <c r="B161">
-        <v>675</v>
+        <v>A2B - Adyar Ananda Bhavan</v>
+      </c>
+      <c r="B161" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="D161">
+        <v>6400</v>
+      </c>
+      <c r="E161" t="str">
+        <v>https://www.zomato.com/chennai/a2b-adyar-ananda-bhavan-gst-road/order</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Upper India Bakery</v>
-      </c>
-      <c r="B162">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>UBQ By Barbeque Nation</v>
-      </c>
-      <c r="B163">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Sardar G Malai Chaap Junction</v>
-      </c>
-      <c r="B164">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Nidhi Pizzeria</v>
-      </c>
-      <c r="B165">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>Pizza &amp; More</v>
-      </c>
-      <c r="B166">
-        <v>125</v>
+        <v>KFC</v>
+      </c>
+      <c r="B162" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="D162">
+        <v>6575</v>
+      </c>
+      <c r="E162" t="str">
+        <v>https://www.zomato.com/chennai/kfc-3-kanchipuram-district/order</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B166"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E162"/>
   </ignoredErrors>
 </worksheet>
 </file>